--- a/DOC/GAPO_V2.xlsx
+++ b/DOC/GAPO_V2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TT" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="97">
   <si>
     <t>TT Changes</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>*pod tabulkou bude validační výpis ten se na základě validace bude volat při každé změně radia nebo při úvodním zobrazení aktualizačního formu</t>
-  </si>
-  <si>
-    <t>Globální aktualizace parametrů pohonů a objektů v kontinuálním režimu  z důvodu změny parametrů vozíku</t>
   </si>
   <si>
     <t>aRD, RD, Rz, Rx, CT, DD, K</t>
@@ -341,9 +338,6 @@
     </r>
   </si>
   <si>
-    <t>*S&amp;G režim se zohledňuje přímo výpočtem (není možná volba), pouze ve validaci zda se stíhá přejezd</t>
-  </si>
-  <si>
     <t>S&amp;G</t>
   </si>
   <si>
@@ -351,12 +345,6 @@
   </si>
   <si>
     <t>O8</t>
-  </si>
-  <si>
-    <t>*S&amp;G, PP režimy se nezohledňují, pouze ve validaci zda se stíhá přejezd a jedostatečný mezerový fond</t>
-  </si>
-  <si>
-    <t>*změny proběhnou pouze v případě změny aRD a Rz (pouze v případě změny Rx,R se pro daný pohon nic neděje)</t>
   </si>
   <si>
     <r>
@@ -494,12 +482,59 @@
       <t>Rx</t>
     </r>
   </si>
+  <si>
+    <t>pozn. pohon bez přiřazení se nemění, neznáme rotaci vozíku, situaci ošetřuje při přiřazování pohonu validace parametrů objektu</t>
+  </si>
+  <si>
+    <r>
+      <t>pozn. nepřiřazený pohon se mění (známe z TT nové Rz),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pouze se později při přiřazování pohonu k objetu (na PO) musí zkontrolovat či pohlídat, zda se vozíky vejdou do objektu, kterému je daný pohon přiřazen </t>
+    </r>
+  </si>
+  <si>
+    <t>*S&amp;G a PP? režim se zohledňuje přímo výpočtem (není možná volba), pouze ve validaci zda se stíhá přejezd</t>
+  </si>
+  <si>
+    <t>*změny proběhnou pouze pokud mají vliv na aRD resp. Rz</t>
+  </si>
+  <si>
+    <t>*objekty v PP režimu se zohledňují, pouze ve validaci se kontroluje zda se stíhá přejezd</t>
+  </si>
+  <si>
+    <t>Globální aktualizace parametrů pohonů a objektů ve všech režimech  z důvodu změny parametrů vozíku</t>
+  </si>
+  <si>
+    <t>*objekty v S&amp;G režimu se pouze zobrazuji (nelze volit volby), pouze ve validaci se kontroluje zda se stíhá přejezd a zda se vozík vejde celý do kabiny (zde postačí modré upozornění)</t>
+  </si>
+  <si>
+    <t>*S&amp;G, PP režimy se zohledňují (S&amp;G neobsahuje volby, PP obsahuje volby pouze pokud je změna na základě změny R nutná), pouze ve validaci zda se stíhá přejezd a jedostatečný mezerový fond</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,7 +1424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,27 +1594,122 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1592,52 +1722,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,51 +1800,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1733,86 +1845,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4335,14 +4371,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>129409</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>14780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>319909</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24305</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4371,14 +4407,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>327134</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>15437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>508109</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24962</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4407,13 +4443,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>314308</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4445,13 +4481,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>514331</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>190479</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6719,7 +6755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv sady Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
     <a:clrScheme name="Kancelář">
       <a:dk1>
@@ -6793,6 +6829,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6827,6 +6864,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kancelář">
@@ -7002,17 +7040,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:S16"/>
+  <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -7024,12 +7062,12 @@
     <col min="10" max="16" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16.5" thickBot="1">
+    <row r="1" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="114" customHeight="1">
+    <row r="2" spans="2:19" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
@@ -7039,32 +7077,32 @@
       <c r="D2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="142" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="142" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="145"/>
+      <c r="E2" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="87"/>
+      <c r="I2" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="86"/>
       <c r="R2" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B3" s="88" t="s">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -7073,50 +7111,50 @@
       <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
       <c r="M3" s="67"/>
       <c r="N3" s="67"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="102"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="98"/>
       <c r="R3" s="15"/>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B4" s="79"/>
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="118"/>
       <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
+        <v>74</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
       <c r="R4" s="16"/>
       <c r="S4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="89"/>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="122"/>
       <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
@@ -7137,10 +7175,10 @@
       <c r="P5" s="66"/>
       <c r="R5" s="17"/>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
@@ -7150,25 +7188,25 @@
       <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="102"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="98"/>
       <c r="R6" s="78"/>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="79" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="118" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -7177,18 +7215,18 @@
       <c r="D7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
       <c r="I7" s="108"/>
       <c r="J7" s="109"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="100"/>
       <c r="R7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7196,26 +7234,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B8" s="79"/>
+    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="118"/>
       <c r="C8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
       <c r="R8" s="2" t="s">
         <v>17</v>
       </c>
@@ -7223,123 +7261,122 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B9" s="79"/>
+    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="118"/>
       <c r="C9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="R9" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="118"/>
+      <c r="C10" s="70" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="R9" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B10" s="79"/>
-      <c r="C10" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="D10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="74"/>
       <c r="N10" s="74"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="105"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="101"/>
       <c r="S10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.75" thickBot="1">
+    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="72"/>
       <c r="J11" s="73"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
       <c r="S11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
-      <c r="B13" t="s">
-        <v>75</v>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="75" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G9:P9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:P4"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:L11"/>
@@ -7355,15 +7392,21 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7372,29 +7415,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:X15"/>
+  <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="4" max="13" width="3" customWidth="1"/>
     <col min="14" max="14" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16.5" thickBot="1">
+    <row r="1" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="150" customHeight="1">
+    <row r="2" spans="2:24" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
@@ -7402,59 +7445,59 @@
         <v>19</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="148" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="149" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="149" t="s">
-        <v>90</v>
-      </c>
       <c r="J2" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="29" t="s">
-        <v>91</v>
-      </c>
       <c r="L2" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>92</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="76"/>
       <c r="K3" s="77"/>
       <c r="L3" s="40"/>
       <c r="M3" s="41"/>
       <c r="O3" s="15"/>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
@@ -7465,7 +7508,7 @@
       <c r="W3" s="37"/>
       <c r="X3" s="37"/>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>12</v>
       </c>
@@ -7476,159 +7519,173 @@
       <c r="E4" s="35"/>
       <c r="F4" s="42"/>
       <c r="G4" s="43"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="126"/>
       <c r="J4" s="42"/>
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
       <c r="M4" s="45"/>
       <c r="O4" s="16"/>
       <c r="P4" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="112" t="s">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="149" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="140"/>
       <c r="O5" s="46"/>
       <c r="P5" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:24">
-      <c r="B6" s="112"/>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="149"/>
       <c r="C6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="153"/>
-      <c r="O6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="140"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="37" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:24">
-      <c r="B7" s="112"/>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="149"/>
       <c r="C7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="153"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="140"/>
       <c r="O7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="147" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>49</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="108"/>
       <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="159"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="134"/>
+      <c r="O8" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="P8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="148"/>
+      <c r="C9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="138"/>
+      <c r="P9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B9" s="107"/>
-      <c r="C9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="163"/>
-      <c r="P9" t="s">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:24">
-      <c r="B10" s="18" t="s">
-        <v>80</v>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="11" spans="2:24">
-      <c r="B11" t="s">
-        <v>37</v>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:24">
-      <c r="B12" t="s">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:24">
-      <c r="B13" t="s">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:24">
-      <c r="B14" s="75" t="s">
-        <v>74</v>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="75" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="15" spans="2:24">
-      <c r="F15" s="25"/>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -7645,58 +7702,56 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="4" max="7" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.5" thickBot="1">
+    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="103.5">
+    <row r="2" spans="2:10" ht="103.5" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>35</v>
@@ -7705,33 +7760,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="102"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="98"/>
       <c r="I3" s="15"/>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="79" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="118" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="127"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="154"/>
       <c r="I4" s="48" t="s">
         <v>12</v>
       </c>
@@ -7739,15 +7794,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="79"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="118"/>
       <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="130"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="157"/>
       <c r="I5" s="48" t="s">
         <v>17</v>
       </c>
@@ -7755,32 +7810,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B6" s="124"/>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="151"/>
       <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="133"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="160"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -7804,7 +7859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -7814,19 +7869,19 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1">
+    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="103.5">
+    <row r="2" spans="2:8" ht="103.5" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>33</v>
@@ -7841,29 +7896,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="102"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="98"/>
       <c r="G3" s="15"/>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="79" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="118" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="154"/>
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
@@ -7871,13 +7926,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="79"/>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="118"/>
       <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="130"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="157"/>
       <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
@@ -7885,30 +7940,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="124"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="151"/>
       <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="133"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="160"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -7927,7 +7982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
@@ -7937,72 +7992,72 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="4" max="7" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1">
+    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="103.5">
+    <row r="2" spans="2:15" ht="103.5" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="52" t="s">
         <v>57</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>58</v>
       </c>
       <c r="J2" s="52" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="M2" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="N2" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="O2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="53" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="102"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="60"/>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
@@ -8012,17 +8067,17 @@
       <c r="N3" s="55"/>
       <c r="O3" s="58"/>
     </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="79" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="118" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="127"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="54"/>
       <c r="I4" s="56"/>
       <c r="J4" s="61"/>
@@ -8032,15 +8087,15 @@
       <c r="N4" s="55"/>
       <c r="O4" s="58"/>
     </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="79"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="118"/>
       <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="130"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="157"/>
       <c r="H5" s="60"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55"/>
@@ -8050,15 +8105,15 @@
       <c r="N5" s="55"/>
       <c r="O5" s="58"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B6" s="124"/>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="151"/>
       <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="133"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="160"/>
       <c r="H6" s="62"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
@@ -8068,27 +8123,27 @@
       <c r="N6" s="57"/>
       <c r="O6" s="59"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="H7" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H8" s="51"/>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H9" s="50"/>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8110,25 +8165,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="5" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -8148,7 +8203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -8168,7 +8223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -8188,22 +8243,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="D9" s="134" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135" t="s">
+      <c r="E9" s="161"/>
+      <c r="F9" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="135"/>
+      <c r="G9" s="162"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -8223,7 +8278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -8243,7 +8298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -8263,17 +8318,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="D15" s="135" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="135"/>
-      <c r="F15" s="136" t="s">
+      <c r="E15" s="162"/>
+      <c r="F15" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="136"/>
+      <c r="G15" s="163"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -8293,7 +8348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -8313,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
